--- a/F.xlsx
+++ b/F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B941236A-0364-43E3-94FC-63B8C2FB1717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF60DC1-EA6E-4A8E-BC89-40E29508F795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{14C385F1-0351-4B4A-9538-DA76523A35A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{14C385F1-0351-4B4A-9538-DA76523A35A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,14 +235,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -270,6 +268,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,22 +302,23 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -644,45 +657,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C8A6D2-9B05-448B-8CA1-4C8A95587516}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="3">
         <f>3904.327951+70.852076</f>
         <v>3975.1800270000003</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="3">
@@ -690,35 +704,35 @@
         <v>39910.807471079999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="3">
         <f>22935+15413</f>
         <v>38348</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="3">
         <f>84675+18898+53193+1756</f>
         <v>158522</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="3">
@@ -726,26 +740,26 @@
         <v>160084.80747107998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -758,40 +772,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7D371E-C7F8-40D2-8FBB-67ACD3BEC0E9}">
   <dimension ref="A1:BV376"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49:F49"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3"/>
@@ -871,8 +886,8 @@
       <c r="BU3" s="3"/>
       <c r="BV3" s="3"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3"/>
@@ -952,8 +967,8 @@
       <c r="BU4" s="3"/>
       <c r="BV4" s="3"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3"/>
@@ -1033,8 +1048,8 @@
       <c r="BU5" s="3"/>
       <c r="BV5" s="3"/>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3"/>
@@ -1116,7 +1131,7 @@
       <c r="BU6" s="3"/>
       <c r="BV6" s="3"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1190,8 +1205,8 @@
       <c r="BU7" s="3"/>
       <c r="BV7" s="3"/>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="6"/>
@@ -1273,8 +1288,8 @@
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="6"/>
@@ -1356,23 +1371,23 @@
       <c r="BU9" s="3"/>
       <c r="BV9" s="3"/>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="e">
+      <c r="C10" s="7" t="e">
         <f t="shared" ref="C10:E10" si="0">+C9/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>0.13380281690140844</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0.12422360248447203</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <f>+F9/F8</f>
         <v>0.12804878048780488</v>
       </c>
@@ -1445,8 +1460,8 @@
       <c r="BU10" s="3"/>
       <c r="BV10" s="3"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="6"/>
@@ -1528,8 +1543,8 @@
       <c r="BU11" s="3"/>
       <c r="BV11" s="3"/>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="6"/>
@@ -1611,20 +1626,20 @@
       <c r="BU12" s="3"/>
       <c r="BV12" s="3"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <f t="shared" ref="D13:E13" si="1">+D12/D11</f>
         <v>2.0920502092050212E-2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>1.9920318725099601E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <f>+F12/F11</f>
         <v>1.4760147601476014E-2</v>
       </c>
@@ -1697,8 +1712,8 @@
       <c r="BU13" s="3"/>
       <c r="BV13" s="3"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="6"/>
@@ -1780,8 +1795,8 @@
       <c r="BU14" s="3"/>
       <c r="BV14" s="3"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="6"/>
@@ -1863,20 +1878,20 @@
       <c r="BU15" s="3"/>
       <c r="BV15" s="3"/>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <f t="shared" ref="D16:E16" si="2">+D15/D14</f>
         <v>0.125</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <f t="shared" si="2"/>
         <v>0.11111111111111112</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <f>+F15/F14</f>
         <v>0.15789473684210525</v>
       </c>
@@ -1949,8 +1964,8 @@
       <c r="BU16" s="3"/>
       <c r="BV16" s="3"/>
     </row>
-    <row r="17" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="6"/>
@@ -2032,8 +2047,8 @@
       <c r="BU17" s="3"/>
       <c r="BV17" s="3"/>
     </row>
-    <row r="18" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6"/>
@@ -2115,20 +2130,20 @@
       <c r="BU18" s="3"/>
       <c r="BV18" s="3"/>
     </row>
-    <row r="19" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <f t="shared" ref="D19:E19" si="3">+D18/D17</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <f>+F18/F17</f>
         <v>6.25E-2</v>
       </c>
@@ -2201,8 +2216,8 @@
       <c r="BU19" s="3"/>
       <c r="BV19" s="3"/>
     </row>
-    <row r="20" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="6"/>
@@ -2287,8 +2302,8 @@
       <c r="BU20" s="3"/>
       <c r="BV20" s="3"/>
     </row>
-    <row r="21" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="6"/>
@@ -2373,20 +2388,20 @@
       <c r="BU21" s="3"/>
       <c r="BV21" s="3"/>
     </row>
-    <row r="22" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <f>+D21/D20</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <f>+E21/E20</f>
         <v>6.7415730337078664E-2</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f>+F21/F20</f>
         <v>6.741573033707865E-2</v>
       </c>
@@ -2459,7 +2474,7 @@
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
     </row>
-    <row r="23" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2533,21 +2548,21 @@
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
     </row>
-    <row r="24" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
         <f>72.608+99.928</f>
         <v>172.536</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <f>68.99+97.865</f>
         <v>166.85499999999999</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2616,21 +2631,21 @@
       <c r="BU24" s="3"/>
       <c r="BV24" s="3"/>
     </row>
-    <row r="25" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
         <f>133.743+146.249</f>
         <v>279.99199999999996</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <f>187.426+215.735</f>
         <v>403.161</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2699,21 +2714,21 @@
       <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
     </row>
-    <row r="26" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
         <f>1789.561+1850.448</f>
         <v>3640.009</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <f>1793.541+1914.862</f>
         <v>3708.4030000000002</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -2782,28 +2797,28 @@
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
     </row>
-    <row r="27" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <f t="shared" ref="C27:E27" si="4">+SUM(C24:C26)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="9">
         <f t="shared" si="4"/>
         <v>4092.5369999999998</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <f>+SUM(F24:F26)</f>
         <v>4278.4189999999999</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2871,7 +2886,7 @@
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
     </row>
-    <row r="28" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2945,8 +2960,8 @@
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
     </row>
-    <row r="29" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="3"/>
@@ -3026,8 +3041,8 @@
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
     </row>
-    <row r="30" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="3"/>
@@ -3107,8 +3122,8 @@
       <c r="BU30" s="3"/>
       <c r="BV30" s="3"/>
     </row>
-    <row r="31" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="3"/>
@@ -3188,8 +3203,8 @@
       <c r="BU31" s="3"/>
       <c r="BV31" s="3"/>
     </row>
-    <row r="32" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="3"/>
@@ -3271,8 +3286,8 @@
       <c r="BU32" s="3"/>
       <c r="BV32" s="3"/>
     </row>
-    <row r="33" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="3"/>
@@ -3354,17 +3369,17 @@
       <c r="BU33" s="3"/>
       <c r="BV33" s="3"/>
     </row>
-    <row r="34" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
-      <c r="D34" s="5">
+      <c r="D34" s="10">
         <f>+D32+D33</f>
         <v>158057</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="10">
         <f>+E32+E33</f>
         <v>176191</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="10">
         <f>+F32+F33</f>
         <v>184992</v>
       </c>
@@ -3437,7 +3452,7 @@
       <c r="BU34" s="3"/>
       <c r="BV34" s="3"/>
     </row>
-    <row r="35" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3">
         <v>134397</v>
@@ -3517,7 +3532,7 @@
       <c r="BU35" s="3"/>
       <c r="BV35" s="3"/>
     </row>
-    <row r="36" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3">
         <f t="shared" ref="D36:E36" si="5">+D34-D35</f>
@@ -3600,7 +3615,7 @@
       <c r="BU36" s="3"/>
       <c r="BV36" s="3"/>
     </row>
-    <row r="37" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3">
         <v>10888</v>
@@ -3680,7 +3695,7 @@
       <c r="BU37" s="3"/>
       <c r="BV37" s="3"/>
     </row>
-    <row r="38" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3">
         <v>6496</v>
@@ -3760,7 +3775,7 @@
       <c r="BU38" s="3"/>
       <c r="BV38" s="3"/>
     </row>
-    <row r="39" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3">
         <f>+D36-SUM(D37:D38)</f>
@@ -3843,7 +3858,7 @@
       <c r="BU39" s="3"/>
       <c r="BV39" s="3"/>
     </row>
-    <row r="40" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3">
         <v>1259</v>
@@ -3923,7 +3938,7 @@
       <c r="BU40" s="3"/>
       <c r="BV40" s="3"/>
     </row>
-    <row r="41" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3">
         <v>-5150</v>
@@ -4003,7 +4018,7 @@
       <c r="BU41" s="3"/>
       <c r="BV41" s="3"/>
     </row>
-    <row r="42" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3">
         <v>-2883</v>
@@ -4083,7 +4098,7 @@
       <c r="BU42" s="3"/>
       <c r="BV42" s="3"/>
     </row>
-    <row r="43" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3">
         <f>+D39-D40+D41+D42</f>
@@ -4166,7 +4181,7 @@
       <c r="BU43" s="3"/>
       <c r="BV43" s="3"/>
     </row>
-    <row r="44" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <v>-864</v>
@@ -4246,7 +4261,7 @@
       <c r="BU44" s="3"/>
       <c r="BV44" s="3"/>
     </row>
-    <row r="45" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3">
         <f t="shared" ref="D45:E45" si="7">+D43-D44</f>
@@ -4329,7 +4344,7 @@
       <c r="BU45" s="3"/>
       <c r="BV45" s="3"/>
     </row>
-    <row r="46" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3">
         <v>-171</v>
@@ -4409,7 +4424,7 @@
       <c r="BU46" s="3"/>
       <c r="BV46" s="3"/>
     </row>
-    <row r="47" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3">
         <f t="shared" ref="D47:E47" si="8">+D45-D46</f>
@@ -4492,7 +4507,7 @@
       <c r="BU47" s="3"/>
       <c r="BV47" s="3"/>
     </row>
-    <row r="48" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4566,17 +4581,17 @@
       <c r="BU48" s="3"/>
       <c r="BV48" s="3"/>
     </row>
-    <row r="49" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
-      <c r="D49" s="7">
+      <c r="D49" s="8">
         <f>+D47/D50</f>
         <v>-0.49352267065271549</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="8">
         <f t="shared" ref="E49:F49" si="9">+E47/E50</f>
         <v>1.0872936468234118</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <f t="shared" si="9"/>
         <v>1.4778783308195074</v>
       </c>
@@ -4649,7 +4664,7 @@
       <c r="BU49" s="3"/>
       <c r="BV49" s="3"/>
     </row>
-    <row r="50" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3">
         <v>4014</v>
@@ -4729,7 +4744,7 @@
       <c r="BU50" s="3"/>
       <c r="BV50" s="3"/>
     </row>
-    <row r="51" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4803,7 +4818,7 @@
       <c r="BU51" s="3"/>
       <c r="BV51" s="3"/>
     </row>
-    <row r="52" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4877,7 +4892,7 @@
       <c r="BU52" s="3"/>
       <c r="BV52" s="3"/>
     </row>
-    <row r="53" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4951,7 +4966,7 @@
       <c r="BU53" s="3"/>
       <c r="BV53" s="3"/>
     </row>
-    <row r="54" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5025,7 +5040,7 @@
       <c r="BU54" s="3"/>
       <c r="BV54" s="3"/>
     </row>
-    <row r="55" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5099,7 +5114,7 @@
       <c r="BU55" s="3"/>
       <c r="BV55" s="3"/>
     </row>
-    <row r="56" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5173,7 +5188,7 @@
       <c r="BU56" s="3"/>
       <c r="BV56" s="3"/>
     </row>
-    <row r="57" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5247,7 +5262,7 @@
       <c r="BU57" s="3"/>
       <c r="BV57" s="3"/>
     </row>
-    <row r="58" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5321,7 +5336,7 @@
       <c r="BU58" s="3"/>
       <c r="BV58" s="3"/>
     </row>
-    <row r="59" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5395,7 +5410,7 @@
       <c r="BU59" s="3"/>
       <c r="BV59" s="3"/>
     </row>
-    <row r="60" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5469,7 +5484,7 @@
       <c r="BU60" s="3"/>
       <c r="BV60" s="3"/>
     </row>
-    <row r="61" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5543,7 +5558,7 @@
       <c r="BU61" s="3"/>
       <c r="BV61" s="3"/>
     </row>
-    <row r="62" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5617,7 +5632,7 @@
       <c r="BU62" s="3"/>
       <c r="BV62" s="3"/>
     </row>
-    <row r="63" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5691,7 +5706,7 @@
       <c r="BU63" s="3"/>
       <c r="BV63" s="3"/>
     </row>
-    <row r="64" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5765,7 +5780,7 @@
       <c r="BU64" s="3"/>
       <c r="BV64" s="3"/>
     </row>
-    <row r="65" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5839,7 +5854,7 @@
       <c r="BU65" s="3"/>
       <c r="BV65" s="3"/>
     </row>
-    <row r="66" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5913,7 +5928,7 @@
       <c r="BU66" s="3"/>
       <c r="BV66" s="3"/>
     </row>
-    <row r="67" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5987,7 +6002,7 @@
       <c r="BU67" s="3"/>
       <c r="BV67" s="3"/>
     </row>
-    <row r="68" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6061,7 +6076,7 @@
       <c r="BU68" s="3"/>
       <c r="BV68" s="3"/>
     </row>
-    <row r="69" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -6135,7 +6150,7 @@
       <c r="BU69" s="3"/>
       <c r="BV69" s="3"/>
     </row>
-    <row r="70" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -6209,7 +6224,7 @@
       <c r="BU70" s="3"/>
       <c r="BV70" s="3"/>
     </row>
-    <row r="71" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -6283,7 +6298,7 @@
       <c r="BU71" s="3"/>
       <c r="BV71" s="3"/>
     </row>
-    <row r="72" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -6357,7 +6372,7 @@
       <c r="BU72" s="3"/>
       <c r="BV72" s="3"/>
     </row>
-    <row r="73" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6431,7 +6446,7 @@
       <c r="BU73" s="3"/>
       <c r="BV73" s="3"/>
     </row>
-    <row r="74" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6505,7 +6520,7 @@
       <c r="BU74" s="3"/>
       <c r="BV74" s="3"/>
     </row>
-    <row r="75" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6579,7 +6594,7 @@
       <c r="BU75" s="3"/>
       <c r="BV75" s="3"/>
     </row>
-    <row r="76" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6653,7 +6668,7 @@
       <c r="BU76" s="3"/>
       <c r="BV76" s="3"/>
     </row>
-    <row r="77" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6727,7 +6742,7 @@
       <c r="BU77" s="3"/>
       <c r="BV77" s="3"/>
     </row>
-    <row r="78" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6801,7 +6816,7 @@
       <c r="BU78" s="3"/>
       <c r="BV78" s="3"/>
     </row>
-    <row r="79" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6875,7 +6890,7 @@
       <c r="BU79" s="3"/>
       <c r="BV79" s="3"/>
     </row>
-    <row r="80" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6949,7 +6964,7 @@
       <c r="BU80" s="3"/>
       <c r="BV80" s="3"/>
     </row>
-    <row r="81" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7023,7 +7038,7 @@
       <c r="BU81" s="3"/>
       <c r="BV81" s="3"/>
     </row>
-    <row r="82" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -7097,7 +7112,7 @@
       <c r="BU82" s="3"/>
       <c r="BV82" s="3"/>
     </row>
-    <row r="83" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -7171,7 +7186,7 @@
       <c r="BU83" s="3"/>
       <c r="BV83" s="3"/>
     </row>
-    <row r="84" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -7245,7 +7260,7 @@
       <c r="BU84" s="3"/>
       <c r="BV84" s="3"/>
     </row>
-    <row r="85" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -7319,7 +7334,7 @@
       <c r="BU85" s="3"/>
       <c r="BV85" s="3"/>
     </row>
-    <row r="86" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -7393,7 +7408,7 @@
       <c r="BU86" s="3"/>
       <c r="BV86" s="3"/>
     </row>
-    <row r="87" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -7467,7 +7482,7 @@
       <c r="BU87" s="3"/>
       <c r="BV87" s="3"/>
     </row>
-    <row r="88" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -7541,7 +7556,7 @@
       <c r="BU88" s="3"/>
       <c r="BV88" s="3"/>
     </row>
-    <row r="89" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -7615,7 +7630,7 @@
       <c r="BU89" s="3"/>
       <c r="BV89" s="3"/>
     </row>
-    <row r="90" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -7689,7 +7704,7 @@
       <c r="BU90" s="3"/>
       <c r="BV90" s="3"/>
     </row>
-    <row r="91" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -7763,7 +7778,7 @@
       <c r="BU91" s="3"/>
       <c r="BV91" s="3"/>
     </row>
-    <row r="92" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -7837,7 +7852,7 @@
       <c r="BU92" s="3"/>
       <c r="BV92" s="3"/>
     </row>
-    <row r="93" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -7911,7 +7926,7 @@
       <c r="BU93" s="3"/>
       <c r="BV93" s="3"/>
     </row>
-    <row r="94" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -7985,7 +8000,7 @@
       <c r="BU94" s="3"/>
       <c r="BV94" s="3"/>
     </row>
-    <row r="95" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -8059,7 +8074,7 @@
       <c r="BU95" s="3"/>
       <c r="BV95" s="3"/>
     </row>
-    <row r="96" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -8133,7 +8148,7 @@
       <c r="BU96" s="3"/>
       <c r="BV96" s="3"/>
     </row>
-    <row r="97" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -8207,7 +8222,7 @@
       <c r="BU97" s="3"/>
       <c r="BV97" s="3"/>
     </row>
-    <row r="98" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -8281,7 +8296,7 @@
       <c r="BU98" s="3"/>
       <c r="BV98" s="3"/>
     </row>
-    <row r="99" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -8355,7 +8370,7 @@
       <c r="BU99" s="3"/>
       <c r="BV99" s="3"/>
     </row>
-    <row r="100" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -8429,7 +8444,7 @@
       <c r="BU100" s="3"/>
       <c r="BV100" s="3"/>
     </row>
-    <row r="101" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -8503,7 +8518,7 @@
       <c r="BU101" s="3"/>
       <c r="BV101" s="3"/>
     </row>
-    <row r="102" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -8577,7 +8592,7 @@
       <c r="BU102" s="3"/>
       <c r="BV102" s="3"/>
     </row>
-    <row r="103" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -8651,7 +8666,7 @@
       <c r="BU103" s="3"/>
       <c r="BV103" s="3"/>
     </row>
-    <row r="104" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -8725,7 +8740,7 @@
       <c r="BU104" s="3"/>
       <c r="BV104" s="3"/>
     </row>
-    <row r="105" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -8799,7 +8814,7 @@
       <c r="BU105" s="3"/>
       <c r="BV105" s="3"/>
     </row>
-    <row r="106" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -8873,7 +8888,7 @@
       <c r="BU106" s="3"/>
       <c r="BV106" s="3"/>
     </row>
-    <row r="107" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8947,7 +8962,7 @@
       <c r="BU107" s="3"/>
       <c r="BV107" s="3"/>
     </row>
-    <row r="108" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -9021,7 +9036,7 @@
       <c r="BU108" s="3"/>
       <c r="BV108" s="3"/>
     </row>
-    <row r="109" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -9095,7 +9110,7 @@
       <c r="BU109" s="3"/>
       <c r="BV109" s="3"/>
     </row>
-    <row r="110" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -9169,7 +9184,7 @@
       <c r="BU110" s="3"/>
       <c r="BV110" s="3"/>
     </row>
-    <row r="111" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -9243,7 +9258,7 @@
       <c r="BU111" s="3"/>
       <c r="BV111" s="3"/>
     </row>
-    <row r="112" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -9317,7 +9332,7 @@
       <c r="BU112" s="3"/>
       <c r="BV112" s="3"/>
     </row>
-    <row r="113" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -9391,7 +9406,7 @@
       <c r="BU113" s="3"/>
       <c r="BV113" s="3"/>
     </row>
-    <row r="114" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -9465,7 +9480,7 @@
       <c r="BU114" s="3"/>
       <c r="BV114" s="3"/>
     </row>
-    <row r="115" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -9539,7 +9554,7 @@
       <c r="BU115" s="3"/>
       <c r="BV115" s="3"/>
     </row>
-    <row r="116" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -9613,7 +9628,7 @@
       <c r="BU116" s="3"/>
       <c r="BV116" s="3"/>
     </row>
-    <row r="117" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -9687,7 +9702,7 @@
       <c r="BU117" s="3"/>
       <c r="BV117" s="3"/>
     </row>
-    <row r="118" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -9761,7 +9776,7 @@
       <c r="BU118" s="3"/>
       <c r="BV118" s="3"/>
     </row>
-    <row r="119" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -9835,7 +9850,7 @@
       <c r="BU119" s="3"/>
       <c r="BV119" s="3"/>
     </row>
-    <row r="120" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -9909,7 +9924,7 @@
       <c r="BU120" s="3"/>
       <c r="BV120" s="3"/>
     </row>
-    <row r="121" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -9983,7 +9998,7 @@
       <c r="BU121" s="3"/>
       <c r="BV121" s="3"/>
     </row>
-    <row r="122" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -10057,7 +10072,7 @@
       <c r="BU122" s="3"/>
       <c r="BV122" s="3"/>
     </row>
-    <row r="123" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -10131,7 +10146,7 @@
       <c r="BU123" s="3"/>
       <c r="BV123" s="3"/>
     </row>
-    <row r="124" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -10205,7 +10220,7 @@
       <c r="BU124" s="3"/>
       <c r="BV124" s="3"/>
     </row>
-    <row r="125" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -10279,7 +10294,7 @@
       <c r="BU125" s="3"/>
       <c r="BV125" s="3"/>
     </row>
-    <row r="126" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -10353,7 +10368,7 @@
       <c r="BU126" s="3"/>
       <c r="BV126" s="3"/>
     </row>
-    <row r="127" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -10427,7 +10442,7 @@
       <c r="BU127" s="3"/>
       <c r="BV127" s="3"/>
     </row>
-    <row r="128" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -10501,7 +10516,7 @@
       <c r="BU128" s="3"/>
       <c r="BV128" s="3"/>
     </row>
-    <row r="129" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -10575,7 +10590,7 @@
       <c r="BU129" s="3"/>
       <c r="BV129" s="3"/>
     </row>
-    <row r="130" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -10649,7 +10664,7 @@
       <c r="BU130" s="3"/>
       <c r="BV130" s="3"/>
     </row>
-    <row r="131" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -10723,7 +10738,7 @@
       <c r="BU131" s="3"/>
       <c r="BV131" s="3"/>
     </row>
-    <row r="132" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -10797,7 +10812,7 @@
       <c r="BU132" s="3"/>
       <c r="BV132" s="3"/>
     </row>
-    <row r="133" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -10871,7 +10886,7 @@
       <c r="BU133" s="3"/>
       <c r="BV133" s="3"/>
     </row>
-    <row r="134" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -10945,7 +10960,7 @@
       <c r="BU134" s="3"/>
       <c r="BV134" s="3"/>
     </row>
-    <row r="135" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -11019,7 +11034,7 @@
       <c r="BU135" s="3"/>
       <c r="BV135" s="3"/>
     </row>
-    <row r="136" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -11093,7 +11108,7 @@
       <c r="BU136" s="3"/>
       <c r="BV136" s="3"/>
     </row>
-    <row r="137" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -11167,7 +11182,7 @@
       <c r="BU137" s="3"/>
       <c r="BV137" s="3"/>
     </row>
-    <row r="138" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -11241,7 +11256,7 @@
       <c r="BU138" s="3"/>
       <c r="BV138" s="3"/>
     </row>
-    <row r="139" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -11315,7 +11330,7 @@
       <c r="BU139" s="3"/>
       <c r="BV139" s="3"/>
     </row>
-    <row r="140" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -11389,7 +11404,7 @@
       <c r="BU140" s="3"/>
       <c r="BV140" s="3"/>
     </row>
-    <row r="141" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -11463,7 +11478,7 @@
       <c r="BU141" s="3"/>
       <c r="BV141" s="3"/>
     </row>
-    <row r="142" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -11537,7 +11552,7 @@
       <c r="BU142" s="3"/>
       <c r="BV142" s="3"/>
     </row>
-    <row r="143" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -11611,7 +11626,7 @@
       <c r="BU143" s="3"/>
       <c r="BV143" s="3"/>
     </row>
-    <row r="144" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -11685,7 +11700,7 @@
       <c r="BU144" s="3"/>
       <c r="BV144" s="3"/>
     </row>
-    <row r="145" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -11759,7 +11774,7 @@
       <c r="BU145" s="3"/>
       <c r="BV145" s="3"/>
     </row>
-    <row r="146" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -11833,7 +11848,7 @@
       <c r="BU146" s="3"/>
       <c r="BV146" s="3"/>
     </row>
-    <row r="147" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -11907,7 +11922,7 @@
       <c r="BU147" s="3"/>
       <c r="BV147" s="3"/>
     </row>
-    <row r="148" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -11981,7 +11996,7 @@
       <c r="BU148" s="3"/>
       <c r="BV148" s="3"/>
     </row>
-    <row r="149" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -12055,7 +12070,7 @@
       <c r="BU149" s="3"/>
       <c r="BV149" s="3"/>
     </row>
-    <row r="150" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -12129,7 +12144,7 @@
       <c r="BU150" s="3"/>
       <c r="BV150" s="3"/>
     </row>
-    <row r="151" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -12203,7 +12218,7 @@
       <c r="BU151" s="3"/>
       <c r="BV151" s="3"/>
     </row>
-    <row r="152" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -12277,7 +12292,7 @@
       <c r="BU152" s="3"/>
       <c r="BV152" s="3"/>
     </row>
-    <row r="153" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -12351,7 +12366,7 @@
       <c r="BU153" s="3"/>
       <c r="BV153" s="3"/>
     </row>
-    <row r="154" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -12425,7 +12440,7 @@
       <c r="BU154" s="3"/>
       <c r="BV154" s="3"/>
     </row>
-    <row r="155" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -12499,7 +12514,7 @@
       <c r="BU155" s="3"/>
       <c r="BV155" s="3"/>
     </row>
-    <row r="156" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -12573,7 +12588,7 @@
       <c r="BU156" s="3"/>
       <c r="BV156" s="3"/>
     </row>
-    <row r="157" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -12647,7 +12662,7 @@
       <c r="BU157" s="3"/>
       <c r="BV157" s="3"/>
     </row>
-    <row r="158" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -12721,7 +12736,7 @@
       <c r="BU158" s="3"/>
       <c r="BV158" s="3"/>
     </row>
-    <row r="159" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -12795,7 +12810,7 @@
       <c r="BU159" s="3"/>
       <c r="BV159" s="3"/>
     </row>
-    <row r="160" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -12869,7 +12884,7 @@
       <c r="BU160" s="3"/>
       <c r="BV160" s="3"/>
     </row>
-    <row r="161" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -12943,7 +12958,7 @@
       <c r="BU161" s="3"/>
       <c r="BV161" s="3"/>
     </row>
-    <row r="162" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -13017,7 +13032,7 @@
       <c r="BU162" s="3"/>
       <c r="BV162" s="3"/>
     </row>
-    <row r="163" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -13091,7 +13106,7 @@
       <c r="BU163" s="3"/>
       <c r="BV163" s="3"/>
     </row>
-    <row r="164" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -13165,7 +13180,7 @@
       <c r="BU164" s="3"/>
       <c r="BV164" s="3"/>
     </row>
-    <row r="165" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -13239,7 +13254,7 @@
       <c r="BU165" s="3"/>
       <c r="BV165" s="3"/>
     </row>
-    <row r="166" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -13313,7 +13328,7 @@
       <c r="BU166" s="3"/>
       <c r="BV166" s="3"/>
     </row>
-    <row r="167" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -13387,7 +13402,7 @@
       <c r="BU167" s="3"/>
       <c r="BV167" s="3"/>
     </row>
-    <row r="168" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -13461,7 +13476,7 @@
       <c r="BU168" s="3"/>
       <c r="BV168" s="3"/>
     </row>
-    <row r="169" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -13535,7 +13550,7 @@
       <c r="BU169" s="3"/>
       <c r="BV169" s="3"/>
     </row>
-    <row r="170" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -13609,7 +13624,7 @@
       <c r="BU170" s="3"/>
       <c r="BV170" s="3"/>
     </row>
-    <row r="171" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -13683,7 +13698,7 @@
       <c r="BU171" s="3"/>
       <c r="BV171" s="3"/>
     </row>
-    <row r="172" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -13757,7 +13772,7 @@
       <c r="BU172" s="3"/>
       <c r="BV172" s="3"/>
     </row>
-    <row r="173" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -13831,7 +13846,7 @@
       <c r="BU173" s="3"/>
       <c r="BV173" s="3"/>
     </row>
-    <row r="174" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -13905,7 +13920,7 @@
       <c r="BU174" s="3"/>
       <c r="BV174" s="3"/>
     </row>
-    <row r="175" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -13979,7 +13994,7 @@
       <c r="BU175" s="3"/>
       <c r="BV175" s="3"/>
     </row>
-    <row r="176" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -14053,7 +14068,7 @@
       <c r="BU176" s="3"/>
       <c r="BV176" s="3"/>
     </row>
-    <row r="177" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -14127,7 +14142,7 @@
       <c r="BU177" s="3"/>
       <c r="BV177" s="3"/>
     </row>
-    <row r="178" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -14201,7 +14216,7 @@
       <c r="BU178" s="3"/>
       <c r="BV178" s="3"/>
     </row>
-    <row r="179" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -14275,7 +14290,7 @@
       <c r="BU179" s="3"/>
       <c r="BV179" s="3"/>
     </row>
-    <row r="180" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -14349,7 +14364,7 @@
       <c r="BU180" s="3"/>
       <c r="BV180" s="3"/>
     </row>
-    <row r="181" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -14423,7 +14438,7 @@
       <c r="BU181" s="3"/>
       <c r="BV181" s="3"/>
     </row>
-    <row r="182" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -14497,7 +14512,7 @@
       <c r="BU182" s="3"/>
       <c r="BV182" s="3"/>
     </row>
-    <row r="183" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -14571,7 +14586,7 @@
       <c r="BU183" s="3"/>
       <c r="BV183" s="3"/>
     </row>
-    <row r="184" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -14645,7 +14660,7 @@
       <c r="BU184" s="3"/>
       <c r="BV184" s="3"/>
     </row>
-    <row r="185" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -14719,7 +14734,7 @@
       <c r="BU185" s="3"/>
       <c r="BV185" s="3"/>
     </row>
-    <row r="186" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -14793,7 +14808,7 @@
       <c r="BU186" s="3"/>
       <c r="BV186" s="3"/>
     </row>
-    <row r="187" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -14867,7 +14882,7 @@
       <c r="BU187" s="3"/>
       <c r="BV187" s="3"/>
     </row>
-    <row r="188" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -14941,7 +14956,7 @@
       <c r="BU188" s="3"/>
       <c r="BV188" s="3"/>
     </row>
-    <row r="189" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -15015,7 +15030,7 @@
       <c r="BU189" s="3"/>
       <c r="BV189" s="3"/>
     </row>
-    <row r="190" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -15089,7 +15104,7 @@
       <c r="BU190" s="3"/>
       <c r="BV190" s="3"/>
     </row>
-    <row r="191" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -15163,7 +15178,7 @@
       <c r="BU191" s="3"/>
       <c r="BV191" s="3"/>
     </row>
-    <row r="192" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -15237,7 +15252,7 @@
       <c r="BU192" s="3"/>
       <c r="BV192" s="3"/>
     </row>
-    <row r="193" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -15311,7 +15326,7 @@
       <c r="BU193" s="3"/>
       <c r="BV193" s="3"/>
     </row>
-    <row r="194" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -15385,7 +15400,7 @@
       <c r="BU194" s="3"/>
       <c r="BV194" s="3"/>
     </row>
-    <row r="195" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -15459,7 +15474,7 @@
       <c r="BU195" s="3"/>
       <c r="BV195" s="3"/>
     </row>
-    <row r="196" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -15533,7 +15548,7 @@
       <c r="BU196" s="3"/>
       <c r="BV196" s="3"/>
     </row>
-    <row r="197" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -15607,7 +15622,7 @@
       <c r="BU197" s="3"/>
       <c r="BV197" s="3"/>
     </row>
-    <row r="198" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -15681,7 +15696,7 @@
       <c r="BU198" s="3"/>
       <c r="BV198" s="3"/>
     </row>
-    <row r="199" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -15755,7 +15770,7 @@
       <c r="BU199" s="3"/>
       <c r="BV199" s="3"/>
     </row>
-    <row r="200" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -15829,7 +15844,7 @@
       <c r="BU200" s="3"/>
       <c r="BV200" s="3"/>
     </row>
-    <row r="201" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -15903,7 +15918,7 @@
       <c r="BU201" s="3"/>
       <c r="BV201" s="3"/>
     </row>
-    <row r="202" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -15977,7 +15992,7 @@
       <c r="BU202" s="3"/>
       <c r="BV202" s="3"/>
     </row>
-    <row r="203" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -16051,7 +16066,7 @@
       <c r="BU203" s="3"/>
       <c r="BV203" s="3"/>
     </row>
-    <row r="204" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -16125,7 +16140,7 @@
       <c r="BU204" s="3"/>
       <c r="BV204" s="3"/>
     </row>
-    <row r="205" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -16199,7 +16214,7 @@
       <c r="BU205" s="3"/>
       <c r="BV205" s="3"/>
     </row>
-    <row r="206" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -16273,7 +16288,7 @@
       <c r="BU206" s="3"/>
       <c r="BV206" s="3"/>
     </row>
-    <row r="207" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -16347,7 +16362,7 @@
       <c r="BU207" s="3"/>
       <c r="BV207" s="3"/>
     </row>
-    <row r="208" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -16421,7 +16436,7 @@
       <c r="BU208" s="3"/>
       <c r="BV208" s="3"/>
     </row>
-    <row r="209" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -16495,7 +16510,7 @@
       <c r="BU209" s="3"/>
       <c r="BV209" s="3"/>
     </row>
-    <row r="210" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -16569,7 +16584,7 @@
       <c r="BU210" s="3"/>
       <c r="BV210" s="3"/>
     </row>
-    <row r="211" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -16643,7 +16658,7 @@
       <c r="BU211" s="3"/>
       <c r="BV211" s="3"/>
     </row>
-    <row r="212" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -16717,7 +16732,7 @@
       <c r="BU212" s="3"/>
       <c r="BV212" s="3"/>
     </row>
-    <row r="213" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -16791,7 +16806,7 @@
       <c r="BU213" s="3"/>
       <c r="BV213" s="3"/>
     </row>
-    <row r="214" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -16865,7 +16880,7 @@
       <c r="BU214" s="3"/>
       <c r="BV214" s="3"/>
     </row>
-    <row r="215" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -16939,7 +16954,7 @@
       <c r="BU215" s="3"/>
       <c r="BV215" s="3"/>
     </row>
-    <row r="216" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -17013,7 +17028,7 @@
       <c r="BU216" s="3"/>
       <c r="BV216" s="3"/>
     </row>
-    <row r="217" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -17087,7 +17102,7 @@
       <c r="BU217" s="3"/>
       <c r="BV217" s="3"/>
     </row>
-    <row r="218" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -17161,7 +17176,7 @@
       <c r="BU218" s="3"/>
       <c r="BV218" s="3"/>
     </row>
-    <row r="219" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -17235,7 +17250,7 @@
       <c r="BU219" s="3"/>
       <c r="BV219" s="3"/>
     </row>
-    <row r="220" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -17309,7 +17324,7 @@
       <c r="BU220" s="3"/>
       <c r="BV220" s="3"/>
     </row>
-    <row r="221" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -17383,7 +17398,7 @@
       <c r="BU221" s="3"/>
       <c r="BV221" s="3"/>
     </row>
-    <row r="222" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -17457,7 +17472,7 @@
       <c r="BU222" s="3"/>
       <c r="BV222" s="3"/>
     </row>
-    <row r="223" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -17531,7 +17546,7 @@
       <c r="BU223" s="3"/>
       <c r="BV223" s="3"/>
     </row>
-    <row r="224" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -17605,7 +17620,7 @@
       <c r="BU224" s="3"/>
       <c r="BV224" s="3"/>
     </row>
-    <row r="225" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -17679,7 +17694,7 @@
       <c r="BU225" s="3"/>
       <c r="BV225" s="3"/>
     </row>
-    <row r="226" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -17753,7 +17768,7 @@
       <c r="BU226" s="3"/>
       <c r="BV226" s="3"/>
     </row>
-    <row r="227" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -17827,7 +17842,7 @@
       <c r="BU227" s="3"/>
       <c r="BV227" s="3"/>
     </row>
-    <row r="228" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -17901,7 +17916,7 @@
       <c r="BU228" s="3"/>
       <c r="BV228" s="3"/>
     </row>
-    <row r="229" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -17975,7 +17990,7 @@
       <c r="BU229" s="3"/>
       <c r="BV229" s="3"/>
     </row>
-    <row r="230" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -18049,7 +18064,7 @@
       <c r="BU230" s="3"/>
       <c r="BV230" s="3"/>
     </row>
-    <row r="231" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -18123,7 +18138,7 @@
       <c r="BU231" s="3"/>
       <c r="BV231" s="3"/>
     </row>
-    <row r="232" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -18197,7 +18212,7 @@
       <c r="BU232" s="3"/>
       <c r="BV232" s="3"/>
     </row>
-    <row r="233" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -18271,7 +18286,7 @@
       <c r="BU233" s="3"/>
       <c r="BV233" s="3"/>
     </row>
-    <row r="234" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -18345,7 +18360,7 @@
       <c r="BU234" s="3"/>
       <c r="BV234" s="3"/>
     </row>
-    <row r="235" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -18419,7 +18434,7 @@
       <c r="BU235" s="3"/>
       <c r="BV235" s="3"/>
     </row>
-    <row r="236" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -18493,7 +18508,7 @@
       <c r="BU236" s="3"/>
       <c r="BV236" s="3"/>
     </row>
-    <row r="237" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -18567,7 +18582,7 @@
       <c r="BU237" s="3"/>
       <c r="BV237" s="3"/>
     </row>
-    <row r="238" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -18641,7 +18656,7 @@
       <c r="BU238" s="3"/>
       <c r="BV238" s="3"/>
     </row>
-    <row r="239" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -18715,7 +18730,7 @@
       <c r="BU239" s="3"/>
       <c r="BV239" s="3"/>
     </row>
-    <row r="240" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -18789,7 +18804,7 @@
       <c r="BU240" s="3"/>
       <c r="BV240" s="3"/>
     </row>
-    <row r="241" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -18863,7 +18878,7 @@
       <c r="BU241" s="3"/>
       <c r="BV241" s="3"/>
     </row>
-    <row r="242" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -18937,7 +18952,7 @@
       <c r="BU242" s="3"/>
       <c r="BV242" s="3"/>
     </row>
-    <row r="243" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -19011,7 +19026,7 @@
       <c r="BU243" s="3"/>
       <c r="BV243" s="3"/>
     </row>
-    <row r="244" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -19085,7 +19100,7 @@
       <c r="BU244" s="3"/>
       <c r="BV244" s="3"/>
     </row>
-    <row r="245" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -19159,7 +19174,7 @@
       <c r="BU245" s="3"/>
       <c r="BV245" s="3"/>
     </row>
-    <row r="246" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -19233,7 +19248,7 @@
       <c r="BU246" s="3"/>
       <c r="BV246" s="3"/>
     </row>
-    <row r="247" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -19307,7 +19322,7 @@
       <c r="BU247" s="3"/>
       <c r="BV247" s="3"/>
     </row>
-    <row r="248" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -19381,7 +19396,7 @@
       <c r="BU248" s="3"/>
       <c r="BV248" s="3"/>
     </row>
-    <row r="249" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -19455,7 +19470,7 @@
       <c r="BU249" s="3"/>
       <c r="BV249" s="3"/>
     </row>
-    <row r="250" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -19529,7 +19544,7 @@
       <c r="BU250" s="3"/>
       <c r="BV250" s="3"/>
     </row>
-    <row r="251" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -19603,7 +19618,7 @@
       <c r="BU251" s="3"/>
       <c r="BV251" s="3"/>
     </row>
-    <row r="252" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -19677,7 +19692,7 @@
       <c r="BU252" s="3"/>
       <c r="BV252" s="3"/>
     </row>
-    <row r="253" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -19751,7 +19766,7 @@
       <c r="BU253" s="3"/>
       <c r="BV253" s="3"/>
     </row>
-    <row r="254" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -19825,7 +19840,7 @@
       <c r="BU254" s="3"/>
       <c r="BV254" s="3"/>
     </row>
-    <row r="255" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -19899,7 +19914,7 @@
       <c r="BU255" s="3"/>
       <c r="BV255" s="3"/>
     </row>
-    <row r="256" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -19973,7 +19988,7 @@
       <c r="BU256" s="3"/>
       <c r="BV256" s="3"/>
     </row>
-    <row r="257" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -20047,7 +20062,7 @@
       <c r="BU257" s="3"/>
       <c r="BV257" s="3"/>
     </row>
-    <row r="258" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -20121,7 +20136,7 @@
       <c r="BU258" s="3"/>
       <c r="BV258" s="3"/>
     </row>
-    <row r="259" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -20195,7 +20210,7 @@
       <c r="BU259" s="3"/>
       <c r="BV259" s="3"/>
     </row>
-    <row r="260" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -20269,7 +20284,7 @@
       <c r="BU260" s="3"/>
       <c r="BV260" s="3"/>
     </row>
-    <row r="261" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -20343,7 +20358,7 @@
       <c r="BU261" s="3"/>
       <c r="BV261" s="3"/>
     </row>
-    <row r="262" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -20417,7 +20432,7 @@
       <c r="BU262" s="3"/>
       <c r="BV262" s="3"/>
     </row>
-    <row r="263" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -20491,7 +20506,7 @@
       <c r="BU263" s="3"/>
       <c r="BV263" s="3"/>
     </row>
-    <row r="264" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -20565,7 +20580,7 @@
       <c r="BU264" s="3"/>
       <c r="BV264" s="3"/>
     </row>
-    <row r="265" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -20639,7 +20654,7 @@
       <c r="BU265" s="3"/>
       <c r="BV265" s="3"/>
     </row>
-    <row r="266" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -20713,7 +20728,7 @@
       <c r="BU266" s="3"/>
       <c r="BV266" s="3"/>
     </row>
-    <row r="267" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -20787,7 +20802,7 @@
       <c r="BU267" s="3"/>
       <c r="BV267" s="3"/>
     </row>
-    <row r="268" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -20861,7 +20876,7 @@
       <c r="BU268" s="3"/>
       <c r="BV268" s="3"/>
     </row>
-    <row r="269" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -20935,7 +20950,7 @@
       <c r="BU269" s="3"/>
       <c r="BV269" s="3"/>
     </row>
-    <row r="270" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -21009,7 +21024,7 @@
       <c r="BU270" s="3"/>
       <c r="BV270" s="3"/>
     </row>
-    <row r="271" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -21083,7 +21098,7 @@
       <c r="BU271" s="3"/>
       <c r="BV271" s="3"/>
     </row>
-    <row r="272" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -21157,7 +21172,7 @@
       <c r="BU272" s="3"/>
       <c r="BV272" s="3"/>
     </row>
-    <row r="273" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -21231,7 +21246,7 @@
       <c r="BU273" s="3"/>
       <c r="BV273" s="3"/>
     </row>
-    <row r="274" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -21305,7 +21320,7 @@
       <c r="BU274" s="3"/>
       <c r="BV274" s="3"/>
     </row>
-    <row r="275" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -21379,7 +21394,7 @@
       <c r="BU275" s="3"/>
       <c r="BV275" s="3"/>
     </row>
-    <row r="276" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -21453,7 +21468,7 @@
       <c r="BU276" s="3"/>
       <c r="BV276" s="3"/>
     </row>
-    <row r="277" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -21527,7 +21542,7 @@
       <c r="BU277" s="3"/>
       <c r="BV277" s="3"/>
     </row>
-    <row r="278" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -21601,7 +21616,7 @@
       <c r="BU278" s="3"/>
       <c r="BV278" s="3"/>
     </row>
-    <row r="279" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -21675,7 +21690,7 @@
       <c r="BU279" s="3"/>
       <c r="BV279" s="3"/>
     </row>
-    <row r="280" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -21749,7 +21764,7 @@
       <c r="BU280" s="3"/>
       <c r="BV280" s="3"/>
     </row>
-    <row r="281" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -21823,7 +21838,7 @@
       <c r="BU281" s="3"/>
       <c r="BV281" s="3"/>
     </row>
-    <row r="282" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -21897,7 +21912,7 @@
       <c r="BU282" s="3"/>
       <c r="BV282" s="3"/>
     </row>
-    <row r="283" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -21971,7 +21986,7 @@
       <c r="BU283" s="3"/>
       <c r="BV283" s="3"/>
     </row>
-    <row r="284" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -22045,7 +22060,7 @@
       <c r="BU284" s="3"/>
       <c r="BV284" s="3"/>
     </row>
-    <row r="285" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -22119,7 +22134,7 @@
       <c r="BU285" s="3"/>
       <c r="BV285" s="3"/>
     </row>
-    <row r="286" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -22193,7 +22208,7 @@
       <c r="BU286" s="3"/>
       <c r="BV286" s="3"/>
     </row>
-    <row r="287" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -22267,7 +22282,7 @@
       <c r="BU287" s="3"/>
       <c r="BV287" s="3"/>
     </row>
-    <row r="288" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -22341,7 +22356,7 @@
       <c r="BU288" s="3"/>
       <c r="BV288" s="3"/>
     </row>
-    <row r="289" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -22415,7 +22430,7 @@
       <c r="BU289" s="3"/>
       <c r="BV289" s="3"/>
     </row>
-    <row r="290" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -22489,7 +22504,7 @@
       <c r="BU290" s="3"/>
       <c r="BV290" s="3"/>
     </row>
-    <row r="291" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -22563,7 +22578,7 @@
       <c r="BU291" s="3"/>
       <c r="BV291" s="3"/>
     </row>
-    <row r="292" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -22637,7 +22652,7 @@
       <c r="BU292" s="3"/>
       <c r="BV292" s="3"/>
     </row>
-    <row r="293" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -22711,7 +22726,7 @@
       <c r="BU293" s="3"/>
       <c r="BV293" s="3"/>
     </row>
-    <row r="294" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -22785,7 +22800,7 @@
       <c r="BU294" s="3"/>
       <c r="BV294" s="3"/>
     </row>
-    <row r="295" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -22859,7 +22874,7 @@
       <c r="BU295" s="3"/>
       <c r="BV295" s="3"/>
     </row>
-    <row r="296" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -22933,7 +22948,7 @@
       <c r="BU296" s="3"/>
       <c r="BV296" s="3"/>
     </row>
-    <row r="297" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -23007,7 +23022,7 @@
       <c r="BU297" s="3"/>
       <c r="BV297" s="3"/>
     </row>
-    <row r="298" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -23081,7 +23096,7 @@
       <c r="BU298" s="3"/>
       <c r="BV298" s="3"/>
     </row>
-    <row r="299" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -23155,7 +23170,7 @@
       <c r="BU299" s="3"/>
       <c r="BV299" s="3"/>
     </row>
-    <row r="300" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -23229,7 +23244,7 @@
       <c r="BU300" s="3"/>
       <c r="BV300" s="3"/>
     </row>
-    <row r="301" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -23303,7 +23318,7 @@
       <c r="BU301" s="3"/>
       <c r="BV301" s="3"/>
     </row>
-    <row r="302" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -23377,7 +23392,7 @@
       <c r="BU302" s="3"/>
       <c r="BV302" s="3"/>
     </row>
-    <row r="303" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -23451,7 +23466,7 @@
       <c r="BU303" s="3"/>
       <c r="BV303" s="3"/>
     </row>
-    <row r="304" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -23525,7 +23540,7 @@
       <c r="BU304" s="3"/>
       <c r="BV304" s="3"/>
     </row>
-    <row r="305" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -23599,7 +23614,7 @@
       <c r="BU305" s="3"/>
       <c r="BV305" s="3"/>
     </row>
-    <row r="306" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -23673,7 +23688,7 @@
       <c r="BU306" s="3"/>
       <c r="BV306" s="3"/>
     </row>
-    <row r="307" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -23747,7 +23762,7 @@
       <c r="BU307" s="3"/>
       <c r="BV307" s="3"/>
     </row>
-    <row r="308" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -23821,7 +23836,7 @@
       <c r="BU308" s="3"/>
       <c r="BV308" s="3"/>
     </row>
-    <row r="309" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -23895,7 +23910,7 @@
       <c r="BU309" s="3"/>
       <c r="BV309" s="3"/>
     </row>
-    <row r="310" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -23969,7 +23984,7 @@
       <c r="BU310" s="3"/>
       <c r="BV310" s="3"/>
     </row>
-    <row r="311" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -24043,7 +24058,7 @@
       <c r="BU311" s="3"/>
       <c r="BV311" s="3"/>
     </row>
-    <row r="312" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -24117,7 +24132,7 @@
       <c r="BU312" s="3"/>
       <c r="BV312" s="3"/>
     </row>
-    <row r="313" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -24191,7 +24206,7 @@
       <c r="BU313" s="3"/>
       <c r="BV313" s="3"/>
     </row>
-    <row r="314" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -24265,7 +24280,7 @@
       <c r="BU314" s="3"/>
       <c r="BV314" s="3"/>
     </row>
-    <row r="315" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -24339,7 +24354,7 @@
       <c r="BU315" s="3"/>
       <c r="BV315" s="3"/>
     </row>
-    <row r="316" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -24413,7 +24428,7 @@
       <c r="BU316" s="3"/>
       <c r="BV316" s="3"/>
     </row>
-    <row r="317" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -24487,7 +24502,7 @@
       <c r="BU317" s="3"/>
       <c r="BV317" s="3"/>
     </row>
-    <row r="318" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -24561,7 +24576,7 @@
       <c r="BU318" s="3"/>
       <c r="BV318" s="3"/>
     </row>
-    <row r="319" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -24635,7 +24650,7 @@
       <c r="BU319" s="3"/>
       <c r="BV319" s="3"/>
     </row>
-    <row r="320" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -24709,7 +24724,7 @@
       <c r="BU320" s="3"/>
       <c r="BV320" s="3"/>
     </row>
-    <row r="321" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -24783,7 +24798,7 @@
       <c r="BU321" s="3"/>
       <c r="BV321" s="3"/>
     </row>
-    <row r="322" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -24857,7 +24872,7 @@
       <c r="BU322" s="3"/>
       <c r="BV322" s="3"/>
     </row>
-    <row r="323" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -24931,7 +24946,7 @@
       <c r="BU323" s="3"/>
       <c r="BV323" s="3"/>
     </row>
-    <row r="324" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -25005,7 +25020,7 @@
       <c r="BU324" s="3"/>
       <c r="BV324" s="3"/>
     </row>
-    <row r="325" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -25079,7 +25094,7 @@
       <c r="BU325" s="3"/>
       <c r="BV325" s="3"/>
     </row>
-    <row r="326" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -25153,7 +25168,7 @@
       <c r="BU326" s="3"/>
       <c r="BV326" s="3"/>
     </row>
-    <row r="327" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -25227,7 +25242,7 @@
       <c r="BU327" s="3"/>
       <c r="BV327" s="3"/>
     </row>
-    <row r="328" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -25301,7 +25316,7 @@
       <c r="BU328" s="3"/>
       <c r="BV328" s="3"/>
     </row>
-    <row r="329" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -25375,7 +25390,7 @@
       <c r="BU329" s="3"/>
       <c r="BV329" s="3"/>
     </row>
-    <row r="330" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -25449,7 +25464,7 @@
       <c r="BU330" s="3"/>
       <c r="BV330" s="3"/>
     </row>
-    <row r="331" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -25523,7 +25538,7 @@
       <c r="BU331" s="3"/>
       <c r="BV331" s="3"/>
     </row>
-    <row r="332" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -25597,7 +25612,7 @@
       <c r="BU332" s="3"/>
       <c r="BV332" s="3"/>
     </row>
-    <row r="333" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -25671,7 +25686,7 @@
       <c r="BU333" s="3"/>
       <c r="BV333" s="3"/>
     </row>
-    <row r="334" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -25745,7 +25760,7 @@
       <c r="BU334" s="3"/>
       <c r="BV334" s="3"/>
     </row>
-    <row r="335" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -25819,7 +25834,7 @@
       <c r="BU335" s="3"/>
       <c r="BV335" s="3"/>
     </row>
-    <row r="336" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -25893,7 +25908,7 @@
       <c r="BU336" s="3"/>
       <c r="BV336" s="3"/>
     </row>
-    <row r="337" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -25967,7 +25982,7 @@
       <c r="BU337" s="3"/>
       <c r="BV337" s="3"/>
     </row>
-    <row r="338" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -26041,7 +26056,7 @@
       <c r="BU338" s="3"/>
       <c r="BV338" s="3"/>
     </row>
-    <row r="339" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -26115,7 +26130,7 @@
       <c r="BU339" s="3"/>
       <c r="BV339" s="3"/>
     </row>
-    <row r="340" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -26189,7 +26204,7 @@
       <c r="BU340" s="3"/>
       <c r="BV340" s="3"/>
     </row>
-    <row r="341" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -26263,7 +26278,7 @@
       <c r="BU341" s="3"/>
       <c r="BV341" s="3"/>
     </row>
-    <row r="342" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -26337,7 +26352,7 @@
       <c r="BU342" s="3"/>
       <c r="BV342" s="3"/>
     </row>
-    <row r="343" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -26411,7 +26426,7 @@
       <c r="BU343" s="3"/>
       <c r="BV343" s="3"/>
     </row>
-    <row r="344" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -26485,7 +26500,7 @@
       <c r="BU344" s="3"/>
       <c r="BV344" s="3"/>
     </row>
-    <row r="345" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -26559,7 +26574,7 @@
       <c r="BU345" s="3"/>
       <c r="BV345" s="3"/>
     </row>
-    <row r="346" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -26633,7 +26648,7 @@
       <c r="BU346" s="3"/>
       <c r="BV346" s="3"/>
     </row>
-    <row r="347" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -26707,7 +26722,7 @@
       <c r="BU347" s="3"/>
       <c r="BV347" s="3"/>
     </row>
-    <row r="348" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -26781,7 +26796,7 @@
       <c r="BU348" s="3"/>
       <c r="BV348" s="3"/>
     </row>
-    <row r="349" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -26855,7 +26870,7 @@
       <c r="BU349" s="3"/>
       <c r="BV349" s="3"/>
     </row>
-    <row r="350" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -26929,7 +26944,7 @@
       <c r="BU350" s="3"/>
       <c r="BV350" s="3"/>
     </row>
-    <row r="351" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -27003,7 +27018,7 @@
       <c r="BU351" s="3"/>
       <c r="BV351" s="3"/>
     </row>
-    <row r="352" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -27077,7 +27092,7 @@
       <c r="BU352" s="3"/>
       <c r="BV352" s="3"/>
     </row>
-    <row r="353" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -27151,7 +27166,7 @@
       <c r="BU353" s="3"/>
       <c r="BV353" s="3"/>
     </row>
-    <row r="354" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -27225,7 +27240,7 @@
       <c r="BU354" s="3"/>
       <c r="BV354" s="3"/>
     </row>
-    <row r="355" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -27299,7 +27314,7 @@
       <c r="BU355" s="3"/>
       <c r="BV355" s="3"/>
     </row>
-    <row r="356" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -27373,7 +27388,7 @@
       <c r="BU356" s="3"/>
       <c r="BV356" s="3"/>
     </row>
-    <row r="357" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -27447,7 +27462,7 @@
       <c r="BU357" s="3"/>
       <c r="BV357" s="3"/>
     </row>
-    <row r="358" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -27521,7 +27536,7 @@
       <c r="BU358" s="3"/>
       <c r="BV358" s="3"/>
     </row>
-    <row r="359" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -27595,7 +27610,7 @@
       <c r="BU359" s="3"/>
       <c r="BV359" s="3"/>
     </row>
-    <row r="360" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -27669,7 +27684,7 @@
       <c r="BU360" s="3"/>
       <c r="BV360" s="3"/>
     </row>
-    <row r="361" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -27743,7 +27758,7 @@
       <c r="BU361" s="3"/>
       <c r="BV361" s="3"/>
     </row>
-    <row r="362" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -27817,7 +27832,7 @@
       <c r="BU362" s="3"/>
       <c r="BV362" s="3"/>
     </row>
-    <row r="363" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -27891,7 +27906,7 @@
       <c r="BU363" s="3"/>
       <c r="BV363" s="3"/>
     </row>
-    <row r="364" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -27965,7 +27980,7 @@
       <c r="BU364" s="3"/>
       <c r="BV364" s="3"/>
     </row>
-    <row r="365" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -28039,7 +28054,7 @@
       <c r="BU365" s="3"/>
       <c r="BV365" s="3"/>
     </row>
-    <row r="366" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -28113,7 +28128,7 @@
       <c r="BU366" s="3"/>
       <c r="BV366" s="3"/>
     </row>
-    <row r="367" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -28187,7 +28202,7 @@
       <c r="BU367" s="3"/>
       <c r="BV367" s="3"/>
     </row>
-    <row r="368" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -28261,7 +28276,7 @@
       <c r="BU368" s="3"/>
       <c r="BV368" s="3"/>
     </row>
-    <row r="369" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -28335,7 +28350,7 @@
       <c r="BU369" s="3"/>
       <c r="BV369" s="3"/>
     </row>
-    <row r="370" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -28409,7 +28424,7 @@
       <c r="BU370" s="3"/>
       <c r="BV370" s="3"/>
     </row>
-    <row r="371" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -28483,7 +28498,7 @@
       <c r="BU371" s="3"/>
       <c r="BV371" s="3"/>
     </row>
-    <row r="372" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -28557,7 +28572,7 @@
       <c r="BU372" s="3"/>
       <c r="BV372" s="3"/>
     </row>
-    <row r="373" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -28631,7 +28646,7 @@
       <c r="BU373" s="3"/>
       <c r="BV373" s="3"/>
     </row>
-    <row r="374" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -28705,7 +28720,7 @@
       <c r="BU374" s="3"/>
       <c r="BV374" s="3"/>
     </row>
-    <row r="375" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -28779,7 +28794,7 @@
       <c r="BU375" s="3"/>
       <c r="BV375" s="3"/>
     </row>
-    <row r="376" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
